--- a/data/trans_orig/P5708-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5708-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{421D1C68-633B-4561-88A6-D89F7F70AFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{545A7818-C755-465F-8F81-D6533084A5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{290A2B8D-CB50-4217-82AD-5B29C9116197}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14B0F91A-31EA-4576-93BE-14E1A5FE90B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>46,69%</t>
   </si>
   <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
   </si>
   <si>
     <t>45,83%</t>
   </si>
   <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -110,7 +110,7 @@
     <t>26,02%</t>
   </si>
   <si>
-    <t>31,6%</t>
+    <t>31,8%</t>
   </si>
   <si>
     <t>26,17%</t>
@@ -119,16 +119,16 @@
     <t>23,86%</t>
   </si>
   <si>
-    <t>28,57%</t>
+    <t>28,54%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -137,28 +137,28 @@
     <t>18,15%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>20,81%</t>
   </si>
   <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
   </si>
   <si>
     <t>Menos de lo que deseo</t>
@@ -167,28 +167,28 @@
     <t>5,39%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>Mucho menos de lo que deseo</t>
@@ -197,1762 +197,1762 @@
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2012 (Tasa respuesta: 99,63%)</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2015 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2023 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2012 (Tasa respuesta: 99,63%)</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2015 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2023 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>3,26%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE702471-BDFB-460C-AAAA-902AD038D300}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E422B5-54B2-4D8A-A7C9-3F37B7F0DF5F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2725,10 +2725,10 @@
         <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,13 +2743,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2758,13 +2758,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2773,18 +2773,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2796,13 +2796,13 @@
         <v>979659</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>925</v>
@@ -2811,13 +2811,13 @@
         <v>939773</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>1859</v>
@@ -2826,13 +2826,13 @@
         <v>1919433</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +2847,13 @@
         <v>462867</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>399</v>
@@ -2862,13 +2862,13 @@
         <v>400885</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="M11" s="7">
         <v>863</v>
@@ -2877,13 +2877,13 @@
         <v>863752</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2898,13 @@
         <v>215817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>190</v>
@@ -2913,13 +2913,13 @@
         <v>201384</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>407</v>
@@ -2928,13 +2928,13 @@
         <v>417200</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2949,13 @@
         <v>31359</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -2964,13 +2964,13 @@
         <v>41521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -2979,13 +2979,13 @@
         <v>72881</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3000,13 @@
         <v>3710</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3015,13 +3015,13 @@
         <v>3130</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3030,13 +3030,13 @@
         <v>6841</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3051,13 @@
         <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1553</v>
@@ -3066,13 +3066,13 @@
         <v>1586693</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3202</v>
@@ -3081,18 +3081,18 @@
         <v>3280106</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3104,13 +3104,13 @@
         <v>331108</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>282</v>
@@ -3119,13 +3119,13 @@
         <v>296486</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>598</v>
@@ -3134,13 +3134,13 @@
         <v>627594</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3155,13 @@
         <v>149680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>107</v>
@@ -3170,13 +3170,13 @@
         <v>112323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>252</v>
@@ -3185,13 +3185,13 @@
         <v>262003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3206,13 @@
         <v>55755</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -3221,13 +3221,13 @@
         <v>49902</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -3236,13 +3236,13 @@
         <v>105657</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3257,13 @@
         <v>13315</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -3272,13 +3272,13 @@
         <v>16776</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3287,13 +3287,13 @@
         <v>30091</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3323,13 +3323,13 @@
         <v>926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3338,13 +3338,13 @@
         <v>926</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3359,13 @@
         <v>549858</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3374,13 +3374,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>978</v>
@@ -3389,13 +3389,13 @@
         <v>1026270</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,16 +3409,16 @@
         <v>1741</v>
       </c>
       <c r="D22" s="7">
-        <v>1792440</v>
+        <v>1792439</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>1805</v>
@@ -3427,13 +3427,13 @@
         <v>1838997</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>3546</v>
@@ -3442,13 +3442,13 @@
         <v>3631436</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,16 +3460,16 @@
         <v>904</v>
       </c>
       <c r="D23" s="7">
-        <v>910524</v>
+        <v>910523</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7">
         <v>844</v>
@@ -3478,13 +3478,13 @@
         <v>857408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>1748</v>
@@ -3493,13 +3493,13 @@
         <v>1767931</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3514,13 @@
         <v>458851</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>500</v>
@@ -3529,13 +3529,13 @@
         <v>524948</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>957</v>
@@ -3544,13 +3544,13 @@
         <v>983799</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3565,13 @@
         <v>100333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>130</v>
@@ -3580,13 +3580,13 @@
         <v>139002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>228</v>
@@ -3595,13 +3595,13 @@
         <v>239335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3616,13 @@
         <v>12847</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -3631,13 +3631,13 @@
         <v>17862</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -3646,13 +3646,13 @@
         <v>30709</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,16 +3664,16 @@
         <v>3213</v>
       </c>
       <c r="D27" s="7">
-        <v>3274994</v>
+        <v>3274993</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3296</v>
@@ -3682,13 +3682,13 @@
         <v>3378217</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6509</v>
@@ -3697,18 +3697,18 @@
         <v>6653210</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3727,7 +3727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD37406-0A74-469A-AC82-26CCE19A57AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BC9BBE-A206-4922-A364-63A79B9D7277}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3744,7 +3744,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3851,13 +3851,13 @@
         <v>533728</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>656</v>
@@ -3866,13 +3866,13 @@
         <v>703155</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>1158</v>
@@ -3881,13 +3881,13 @@
         <v>1236882</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,13 +3902,13 @@
         <v>263443</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -3917,13 +3917,13 @@
         <v>417828</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>629</v>
@@ -3932,13 +3932,13 @@
         <v>681271</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,13 +3953,13 @@
         <v>122098</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>146</v>
@@ -3968,13 +3968,13 @@
         <v>157778</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M6" s="7">
         <v>260</v>
@@ -3983,13 +3983,13 @@
         <v>279876</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4004,13 @@
         <v>32609</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4019,13 +4019,13 @@
         <v>37090</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -4034,13 +4034,13 @@
         <v>69698</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4055,13 @@
         <v>15707</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4070,13 +4070,13 @@
         <v>19826</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -4085,13 +4085,13 @@
         <v>35533</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4106,13 @@
         <v>967584</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1245</v>
@@ -4121,13 +4121,13 @@
         <v>1335677</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2146</v>
@@ -4136,18 +4136,18 @@
         <v>2303260</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4159,13 +4159,13 @@
         <v>1198932</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
         <v>932</v>
@@ -4174,13 +4174,13 @@
         <v>997660</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>2072</v>
@@ -4189,13 +4189,13 @@
         <v>2196592</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4210,13 @@
         <v>509925</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>504</v>
@@ -4225,13 +4225,13 @@
         <v>538047</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>983</v>
@@ -4240,13 +4240,13 @@
         <v>1047972</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4261,13 @@
         <v>195986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>153</v>
@@ -4276,13 +4276,13 @@
         <v>167014</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>335</v>
@@ -4291,13 +4291,13 @@
         <v>363000</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4312,13 @@
         <v>42630</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -4327,13 +4327,13 @@
         <v>38112</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -4342,13 +4342,13 @@
         <v>80742</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4363,13 @@
         <v>8308</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4378,13 +4378,13 @@
         <v>12930</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -4393,13 +4393,13 @@
         <v>21237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4414,13 @@
         <v>1955780</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1631</v>
@@ -4429,13 +4429,13 @@
         <v>1753763</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3480</v>
@@ -4444,18 +4444,18 @@
         <v>3709543</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4467,13 +4467,13 @@
         <v>314753</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>277</v>
@@ -4482,13 +4482,13 @@
         <v>303856</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>568</v>
@@ -4497,13 +4497,13 @@
         <v>618609</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4518,13 @@
         <v>112960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -4533,13 +4533,13 @@
         <v>115462</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>204</v>
@@ -4548,13 +4548,13 @@
         <v>228422</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4569,13 @@
         <v>42186</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -4584,13 +4584,13 @@
         <v>36367</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -4599,13 +4599,13 @@
         <v>78553</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4620,13 @@
         <v>6572</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4635,13 +4635,13 @@
         <v>1948</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4650,13 +4650,13 @@
         <v>8520</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4671,13 @@
         <v>938</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4686,13 +4686,13 @@
         <v>998</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4701,13 +4701,13 @@
         <v>1935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4722,13 @@
         <v>477409</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -4737,13 +4737,13 @@
         <v>458631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>846</v>
@@ -4752,13 +4752,13 @@
         <v>936040</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4775,13 @@
         <v>2047413</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H22" s="7">
         <v>1865</v>
@@ -4790,13 +4790,13 @@
         <v>2004670</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M22" s="7">
         <v>3798</v>
@@ -4805,13 +4805,13 @@
         <v>4052084</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4826,13 @@
         <v>886328</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H23" s="7">
         <v>993</v>
@@ -4841,13 +4841,13 @@
         <v>1071337</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M23" s="7">
         <v>1816</v>
@@ -4856,13 +4856,13 @@
         <v>1957666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4877,13 @@
         <v>360269</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H24" s="7">
         <v>331</v>
@@ -4892,13 +4892,13 @@
         <v>361159</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M24" s="7">
         <v>660</v>
@@ -4907,13 +4907,13 @@
         <v>721428</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4928,13 @@
         <v>81810</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>220</v>
+        <v>332</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -4943,13 +4943,13 @@
         <v>77150</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>339</v>
+        <v>53</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -4958,13 +4958,13 @@
         <v>158960</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4979,13 @@
         <v>24952</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -4994,13 +4994,13 @@
         <v>33753</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M26" s="7">
         <v>53</v>
@@ -5009,13 +5009,13 @@
         <v>58706</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5030,13 @@
         <v>3400772</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3288</v>
@@ -5045,13 +5045,13 @@
         <v>3548070</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6472</v>
@@ -5060,18 +5060,18 @@
         <v>6948843</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5090,7 +5090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EA0F06-706A-41EA-A97F-8511A58AA7E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B683411-11FB-419D-88D5-40BCB6D5CA7F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5107,7 +5107,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5214,13 +5214,13 @@
         <v>369217</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H4" s="7">
         <v>379</v>
@@ -5229,13 +5229,13 @@
         <v>415626</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M4" s="7">
         <v>750</v>
@@ -5244,13 +5244,13 @@
         <v>784843</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5265,13 @@
         <v>215311</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H5" s="7">
         <v>299</v>
@@ -5280,13 +5280,13 @@
         <v>335412</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M5" s="7">
         <v>517</v>
@@ -5295,13 +5295,13 @@
         <v>550723</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>367</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5316,13 @@
         <v>134858</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>287</v>
+        <v>367</v>
       </c>
       <c r="H6" s="7">
         <v>159</v>
@@ -5331,13 +5331,13 @@
         <v>178474</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M6" s="7">
         <v>295</v>
@@ -5346,13 +5346,13 @@
         <v>313333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5367,13 @@
         <v>29994</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -5382,13 +5382,13 @@
         <v>51668</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M7" s="7">
         <v>76</v>
@@ -5397,13 +5397,13 @@
         <v>81662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5418,13 @@
         <v>3000</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>386</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5433,13 +5433,13 @@
         <v>11039</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>390</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -5448,13 +5448,13 @@
         <v>14039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5469,13 @@
         <v>752380</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>890</v>
@@ -5484,13 +5484,13 @@
         <v>992220</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1650</v>
@@ -5499,18 +5499,18 @@
         <v>1744600</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5522,13 +5522,13 @@
         <v>1016812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H10" s="7">
         <v>968</v>
@@ -5537,13 +5537,13 @@
         <v>1000023</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M10" s="7">
         <v>1925</v>
@@ -5552,13 +5552,13 @@
         <v>2016835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>400</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5573,13 @@
         <v>682783</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H11" s="7">
         <v>628</v>
@@ -5588,13 +5588,13 @@
         <v>654810</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M11" s="7">
         <v>1275</v>
@@ -5603,13 +5603,13 @@
         <v>1337593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5624,13 @@
         <v>317566</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H12" s="7">
         <v>273</v>
@@ -5639,13 +5639,13 @@
         <v>292660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M12" s="7">
         <v>570</v>
@@ -5654,13 +5654,13 @@
         <v>610227</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5675,13 @@
         <v>34771</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>420</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>416</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5690,13 +5690,13 @@
         <v>24710</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -5705,13 +5705,13 @@
         <v>59481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>233</v>
+        <v>421</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>426</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5726,13 @@
         <v>15152</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>427</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -5741,13 +5741,13 @@
         <v>9429</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>429</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>423</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -5756,13 +5756,13 @@
         <v>24581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>431</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5777,13 @@
         <v>2067084</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1902</v>
@@ -5792,13 +5792,13 @@
         <v>1981632</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3847</v>
@@ -5807,18 +5807,18 @@
         <v>4048716</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5830,13 +5830,13 @@
         <v>308833</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H16" s="7">
         <v>325</v>
@@ -5845,13 +5845,13 @@
         <v>335300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M16" s="7">
         <v>610</v>
@@ -5860,13 +5860,13 @@
         <v>644133</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,13 +5881,13 @@
         <v>175719</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H17" s="7">
         <v>144</v>
@@ -5896,13 +5896,13 @@
         <v>151748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -5911,13 +5911,13 @@
         <v>327467</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,13 +5932,13 @@
         <v>59555</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -5947,13 +5947,13 @@
         <v>49949</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M18" s="7">
         <v>97</v>
@@ -5962,13 +5962,13 @@
         <v>109505</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>457</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,13 +5983,13 @@
         <v>921</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>459</v>
+        <v>223</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -5998,13 +5998,13 @@
         <v>7058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>453</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -6013,13 +6013,13 @@
         <v>7978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6034,13 @@
         <v>993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>268</v>
+        <v>456</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>188</v>
+        <v>457</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6049,13 +6049,13 @@
         <v>1451</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6064,13 +6064,13 @@
         <v>2443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6085,13 @@
         <v>546021</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>523</v>
@@ -6100,13 +6100,13 @@
         <v>545506</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1023</v>
@@ -6115,13 +6115,13 @@
         <v>1091527</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,13 +6138,13 @@
         <v>1694862</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>465</v>
+        <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H22" s="7">
         <v>1672</v>
@@ -6153,13 +6153,13 @@
         <v>1750949</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="M22" s="7">
         <v>3285</v>
@@ -6168,13 +6168,13 @@
         <v>3445810</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6189,13 @@
         <v>1073813</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>322</v>
+        <v>469</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H23" s="7">
         <v>1071</v>
@@ -6204,13 +6204,13 @@
         <v>1141971</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M23" s="7">
         <v>2098</v>
@@ -6219,13 +6219,13 @@
         <v>2215784</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6240,13 @@
         <v>511980</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H24" s="7">
         <v>478</v>
@@ -6255,13 +6255,13 @@
         <v>521084</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M24" s="7">
         <v>962</v>
@@ -6270,13 +6270,13 @@
         <v>1033064</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6291,13 @@
         <v>65685</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>232</v>
+        <v>486</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>487</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -6306,13 +6306,13 @@
         <v>83436</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>489</v>
+        <v>216</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>490</v>
+        <v>333</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M25" s="7">
         <v>138</v>
@@ -6321,13 +6321,13 @@
         <v>149121</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,13 +6342,13 @@
         <v>19144</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>268</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>495</v>
+        <v>51</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -6357,13 +6357,13 @@
         <v>21919</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>55</v>
+        <v>492</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -6372,13 +6372,13 @@
         <v>41063</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>427</v>
+        <v>496</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6393,13 @@
         <v>3365484</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3315</v>
@@ -6408,13 +6408,13 @@
         <v>3519358</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6520</v>
@@ -6423,18 +6423,18 @@
         <v>6884842</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6453,7 +6453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C018179-0408-4559-A22A-B6C485BE940A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DF4676-F29F-45D4-8E9F-77A1AB21E398}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6470,7 +6470,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6577,13 +6577,13 @@
         <v>283029</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H4" s="7">
         <v>697</v>
@@ -6592,13 +6592,13 @@
         <v>418073</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="M4" s="7">
         <v>1051</v>
@@ -6607,13 +6607,13 @@
         <v>701101</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6628,13 @@
         <v>129216</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="H5" s="7">
         <v>367</v>
@@ -6643,13 +6643,13 @@
         <v>211312</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="M5" s="7">
         <v>536</v>
@@ -6658,13 +6658,13 @@
         <v>340528</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6679,13 @@
         <v>80907</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H6" s="7">
         <v>213</v>
@@ -6694,13 +6694,13 @@
         <v>118000</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M6" s="7">
         <v>316</v>
@@ -6709,13 +6709,13 @@
         <v>198906</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6730,13 @@
         <v>32150</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="H7" s="7">
         <v>91</v>
@@ -6745,13 +6745,13 @@
         <v>54395</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="M7" s="7">
         <v>134</v>
@@ -6760,13 +6760,13 @@
         <v>86545</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6781,13 @@
         <v>11568</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>536</v>
+        <v>90</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -6796,13 +6796,13 @@
         <v>22999</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>537</v>
+        <v>224</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>384</v>
+        <v>535</v>
       </c>
       <c r="M8" s="7">
         <v>56</v>
@@ -6811,13 +6811,13 @@
         <v>34567</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>539</v>
+        <v>490</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6832,13 @@
         <v>536869</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1408</v>
@@ -6847,13 +6847,13 @@
         <v>824778</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2093</v>
@@ -6862,18 +6862,18 @@
         <v>1361647</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6885,13 +6885,13 @@
         <v>1361096</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H10" s="7">
         <v>1693</v>
@@ -6900,13 +6900,13 @@
         <v>1311842</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>546</v>
+        <v>105</v>
       </c>
       <c r="M10" s="7">
         <v>2871</v>
@@ -6915,13 +6915,13 @@
         <v>2672938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>542</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>543</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,10 +6939,10 @@
         <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H11" s="7">
         <v>865</v>
@@ -6951,13 +6951,13 @@
         <v>565525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>549</v>
       </c>
       <c r="M11" s="7">
         <v>1443</v>
@@ -6966,13 +6966,13 @@
         <v>1127192</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,13 +6987,13 @@
         <v>169407</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="H12" s="7">
         <v>233</v>
@@ -7002,13 +7002,13 @@
         <v>281016</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="M12" s="7">
         <v>388</v>
@@ -7017,13 +7017,13 @@
         <v>450423</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7038,13 @@
         <v>41534</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>565</v>
+        <v>455</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -7053,13 +7053,13 @@
         <v>56776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>539</v>
+        <v>490</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>563</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -7068,13 +7068,13 @@
         <v>98310</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,13 +7089,13 @@
         <v>24514</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>569</v>
+        <v>346</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -7104,13 +7104,13 @@
         <v>20679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>497</v>
+        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
@@ -7119,13 +7119,13 @@
         <v>45193</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>569</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7140,13 @@
         <v>2158218</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>2907</v>
@@ -7155,13 +7155,13 @@
         <v>2235838</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>4894</v>
@@ -7170,18 +7170,18 @@
         <v>4394056</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7190,31 +7190,31 @@
         <v>452</v>
       </c>
       <c r="D16" s="7">
-        <v>456154</v>
+        <v>456155</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="H16" s="7">
         <v>686</v>
       </c>
       <c r="I16" s="7">
-        <v>504335</v>
+        <v>504334</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="M16" s="7">
         <v>1138</v>
@@ -7223,13 +7223,13 @@
         <v>960489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>579</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7244,13 @@
         <v>159572</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
@@ -7259,13 +7259,13 @@
         <v>168971</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="M17" s="7">
         <v>435</v>
@@ -7274,13 +7274,13 @@
         <v>328543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>445</v>
+        <v>584</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>586</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>587</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7295,13 @@
         <v>32769</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -7310,13 +7310,13 @@
         <v>26967</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>381</v>
+        <v>588</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
@@ -7325,13 +7325,13 @@
         <v>59736</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>593</v>
+        <v>137</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7346,13 @@
         <v>13318</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>138</v>
+        <v>593</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>595</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>381</v>
+        <v>594</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -7361,13 +7361,13 @@
         <v>6750</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>148</v>
+        <v>340</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -7376,13 +7376,13 @@
         <v>20068</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,10 +7400,10 @@
         <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>600</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -7412,13 +7412,13 @@
         <v>4708</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>345</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>602</v>
+        <v>87</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -7427,13 +7427,13 @@
         <v>11253</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>188</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>603</v>
+        <v>491</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,31 +7445,31 @@
         <v>676</v>
       </c>
       <c r="D21" s="7">
-        <v>668358</v>
+        <v>668359</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>1001</v>
       </c>
       <c r="I21" s="7">
-        <v>711731</v>
+        <v>711730</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1677</v>
@@ -7478,13 +7478,13 @@
         <v>1380089</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7501,13 @@
         <v>2100279</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H22" s="7">
         <v>3076</v>
@@ -7516,13 +7516,13 @@
         <v>2234249</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M22" s="7">
         <v>5060</v>
@@ -7531,13 +7531,13 @@
         <v>4334528</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7552,13 @@
         <v>850455</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H23" s="7">
         <v>1494</v>
@@ -7567,13 +7567,13 @@
         <v>945808</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M23" s="7">
         <v>2414</v>
@@ -7582,13 +7582,13 @@
         <v>1796263</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,13 +7603,13 @@
         <v>283083</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>255</v>
+        <v>619</v>
       </c>
       <c r="H24" s="7">
         <v>480</v>
@@ -7618,13 +7618,13 @@
         <v>425983</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>625</v>
+        <v>282</v>
       </c>
       <c r="M24" s="7">
         <v>773</v>
@@ -7633,13 +7633,13 @@
         <v>709066</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>627</v>
+        <v>253</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,13 +7654,13 @@
         <v>87002</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>460</v>
+        <v>624</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>630</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>188</v>
@@ -7669,13 +7669,13 @@
         <v>117921</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>591</v>
+        <v>627</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="M25" s="7">
         <v>294</v>
@@ -7684,13 +7684,13 @@
         <v>204923</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>378</v>
+        <v>629</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>540</v>
+        <v>631</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,13 +7705,13 @@
         <v>42627</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>634</v>
+        <v>533</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>92</v>
+        <v>632</v>
       </c>
       <c r="H26" s="7">
         <v>78</v>
@@ -7720,13 +7720,13 @@
         <v>48385</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M26" s="7">
         <v>123</v>
@@ -7735,10 +7735,10 @@
         <v>91012</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>637</v>
@@ -7756,13 +7756,13 @@
         <v>3363446</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>5316</v>
@@ -7771,13 +7771,13 @@
         <v>3772346</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>8664</v>
@@ -7786,18 +7786,18 @@
         <v>7135792</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5708-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5708-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{545A7818-C755-465F-8F81-D6533084A5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A706407-DD01-4E88-BE90-55C3BDB214D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14B0F91A-31EA-4576-93BE-14E1A5FE90B3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1144D07C-C9A1-462C-812F-EB5D7154B96A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="623">
   <si>
     <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1854 +77,1821 @@
     <t>46,69%</t>
   </si>
   <si>
-    <t>43,71%</t>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>Casi como deseo</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2012 (Tasa respuesta: 99,63%)</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
   </si>
   <si>
     <t>49,81%</t>
   </si>
   <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>Casi como deseo</t>
-  </si>
-  <si>
-    <t>28,88%</t>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2016 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2023 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
   </si>
   <si>
     <t>26,02%</t>
   </si>
   <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2012 (Tasa respuesta: 99,63%)</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2015 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2023 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
     <t>3,65%</t>
   </si>
   <si>
@@ -1937,22 +1904,10 @@
     <t>3,26%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
     <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E422B5-54B2-4D8A-A7C9-3F37B7F0DF5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4FD2BB-58A4-4D2E-9143-E4DFCBE0C0CA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2725,10 +2680,10 @@
         <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,13 +2698,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2758,13 +2713,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2773,18 +2728,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2796,13 +2751,13 @@
         <v>979659</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>925</v>
@@ -2811,13 +2766,13 @@
         <v>939773</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>1859</v>
@@ -2826,10 +2781,10 @@
         <v>1919433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>69</v>
@@ -2865,10 +2820,10 @@
         <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>863</v>
@@ -2877,13 +2832,13 @@
         <v>863752</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2853,13 @@
         <v>215817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>190</v>
@@ -2913,13 +2868,13 @@
         <v>201384</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>407</v>
@@ -2928,13 +2883,13 @@
         <v>417200</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2904,13 @@
         <v>31359</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -2964,13 +2919,13 @@
         <v>41521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -2979,13 +2934,13 @@
         <v>72881</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +2955,13 @@
         <v>3710</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3015,13 +2970,13 @@
         <v>3130</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3030,13 +2985,13 @@
         <v>6841</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,16 +3003,16 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1553</v>
@@ -3066,13 +3021,13 @@
         <v>1586693</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3202</v>
@@ -3081,18 +3036,18 @@
         <v>3280106</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3104,13 +3059,13 @@
         <v>331108</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>282</v>
@@ -3119,13 +3074,13 @@
         <v>296486</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>598</v>
@@ -3134,13 +3089,13 @@
         <v>627594</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3110,13 @@
         <v>149680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>107</v>
@@ -3170,13 +3125,13 @@
         <v>112323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>252</v>
@@ -3185,13 +3140,13 @@
         <v>262003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3161,13 @@
         <v>55755</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -3221,13 +3176,13 @@
         <v>49902</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -3236,13 +3191,13 @@
         <v>105657</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3212,13 @@
         <v>13315</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -3272,13 +3227,13 @@
         <v>16776</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3287,13 +3242,13 @@
         <v>30091</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3323,13 +3278,13 @@
         <v>926</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3338,13 +3293,13 @@
         <v>926</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3314,13 @@
         <v>549858</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3374,13 +3329,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>978</v>
@@ -3389,13 +3344,13 @@
         <v>1026270</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3367,13 @@
         <v>1792439</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>1805</v>
@@ -3427,13 +3382,13 @@
         <v>1838997</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>3546</v>
@@ -3442,13 +3397,13 @@
         <v>3631436</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3418,13 @@
         <v>910523</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>844</v>
@@ -3478,28 +3433,28 @@
         <v>857408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>1748</v>
       </c>
       <c r="N23" s="7">
-        <v>1767931</v>
+        <v>1767932</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3469,13 @@
         <v>458851</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>500</v>
@@ -3529,13 +3484,13 @@
         <v>524948</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>957</v>
@@ -3544,13 +3499,13 @@
         <v>983799</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3520,13 @@
         <v>100333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>130</v>
@@ -3580,28 +3535,28 @@
         <v>139002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>228</v>
       </c>
       <c r="N25" s="7">
-        <v>239335</v>
+        <v>239336</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,10 +3574,10 @@
         <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -3631,13 +3586,13 @@
         <v>17862</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -3646,13 +3601,13 @@
         <v>30709</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3622,13 @@
         <v>3274993</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3296</v>
@@ -3682,33 +3637,33 @@
         <v>3378217</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6509</v>
       </c>
       <c r="N27" s="7">
-        <v>6653210</v>
+        <v>6653211</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3727,7 +3682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BC9BBE-A206-4922-A364-63A79B9D7277}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A605ECA1-A854-4EDE-945C-BE9DC4F6317C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3744,7 +3699,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3851,13 +3806,13 @@
         <v>533728</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>656</v>
@@ -3866,13 +3821,13 @@
         <v>703155</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>1158</v>
@@ -3881,13 +3836,13 @@
         <v>1236882</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,13 +3857,13 @@
         <v>263443</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -3917,13 +3872,13 @@
         <v>417828</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>629</v>
@@ -3932,10 +3887,10 @@
         <v>681271</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>205</v>
@@ -4019,10 +3974,10 @@
         <v>37090</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>219</v>
@@ -4037,10 +3992,10 @@
         <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4010,13 @@
         <v>15707</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4070,13 +4025,13 @@
         <v>19826</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -4085,13 +4040,13 @@
         <v>35533</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4061,13 @@
         <v>967584</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1245</v>
@@ -4121,13 +4076,13 @@
         <v>1335677</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2146</v>
@@ -4136,18 +4091,18 @@
         <v>2303260</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4159,13 +4114,13 @@
         <v>1198932</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>932</v>
@@ -4174,13 +4129,13 @@
         <v>997660</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>2072</v>
@@ -4189,13 +4144,13 @@
         <v>2196592</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4165,13 @@
         <v>509925</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>504</v>
@@ -4225,13 +4180,13 @@
         <v>538047</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
         <v>983</v>
@@ -4240,13 +4195,13 @@
         <v>1047972</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4216,13 @@
         <v>195986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="H12" s="7">
         <v>153</v>
@@ -4297,7 +4252,7 @@
         <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4267,13 @@
         <v>42630</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -4327,7 +4282,7 @@
         <v>38112</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>261</v>
@@ -4342,13 +4297,13 @@
         <v>80742</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4318,13 @@
         <v>8308</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4384,7 +4339,7 @@
         <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>133</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -4393,13 +4348,13 @@
         <v>21237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4369,13 @@
         <v>1955780</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1631</v>
@@ -4429,13 +4384,13 @@
         <v>1753763</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3480</v>
@@ -4444,18 +4399,18 @@
         <v>3709543</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4467,13 +4422,13 @@
         <v>314753</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>277</v>
@@ -4482,13 +4437,13 @@
         <v>303856</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>568</v>
@@ -4497,13 +4452,13 @@
         <v>618609</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4473,13 @@
         <v>112960</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -4533,13 +4488,13 @@
         <v>115462</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>204</v>
@@ -4548,13 +4503,13 @@
         <v>228422</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4524,13 @@
         <v>42186</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -4584,13 +4539,13 @@
         <v>36367</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -4599,13 +4554,13 @@
         <v>78553</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4575,13 @@
         <v>6572</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>297</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4635,13 +4590,13 @@
         <v>1948</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4650,13 +4605,13 @@
         <v>8520</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4626,13 @@
         <v>938</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4686,13 +4641,13 @@
         <v>998</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>51</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4701,13 +4656,13 @@
         <v>1935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4677,13 @@
         <v>477409</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -4737,13 +4692,13 @@
         <v>458631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>846</v>
@@ -4752,13 +4707,13 @@
         <v>936040</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,28 +4730,28 @@
         <v>2047413</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>1865</v>
       </c>
       <c r="I22" s="7">
-        <v>2004670</v>
+        <v>2004671</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M22" s="7">
         <v>3798</v>
@@ -4805,13 +4760,13 @@
         <v>4052084</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4781,13 @@
         <v>886328</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H23" s="7">
         <v>993</v>
@@ -4841,13 +4796,13 @@
         <v>1071337</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M23" s="7">
         <v>1816</v>
@@ -4856,13 +4811,13 @@
         <v>1957666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4832,13 @@
         <v>360269</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="H24" s="7">
         <v>331</v>
@@ -4892,13 +4847,13 @@
         <v>361159</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M24" s="7">
         <v>660</v>
@@ -4907,13 +4862,13 @@
         <v>721428</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4883,13 @@
         <v>81810</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>332</v>
+        <v>221</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -4943,13 +4898,13 @@
         <v>77150</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>53</v>
+        <v>328</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -4958,13 +4913,13 @@
         <v>158960</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>337</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4934,13 @@
         <v>24952</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>229</v>
+        <v>333</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -4994,13 +4949,13 @@
         <v>33753</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M26" s="7">
         <v>53</v>
@@ -5009,13 +4964,13 @@
         <v>58706</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,28 +4985,28 @@
         <v>3400772</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3288</v>
       </c>
       <c r="I27" s="7">
-        <v>3548070</v>
+        <v>3548071</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6472</v>
@@ -5060,18 +5015,18 @@
         <v>6948843</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5090,7 +5045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B683411-11FB-419D-88D5-40BCB6D5CA7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C370AEDB-4840-49C3-86D7-24E45B703B15}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5107,7 +5062,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5214,13 +5169,13 @@
         <v>369217</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H4" s="7">
         <v>379</v>
@@ -5229,13 +5184,13 @@
         <v>415626</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M4" s="7">
         <v>750</v>
@@ -5244,13 +5199,13 @@
         <v>784843</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5220,13 @@
         <v>215311</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H5" s="7">
         <v>299</v>
@@ -5280,13 +5235,13 @@
         <v>335412</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>517</v>
@@ -5295,13 +5250,13 @@
         <v>550723</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>72</v>
+        <v>356</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5271,13 @@
         <v>134858</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H6" s="7">
         <v>159</v>
@@ -5331,13 +5286,13 @@
         <v>178474</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M6" s="7">
         <v>295</v>
@@ -5346,13 +5301,13 @@
         <v>313333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5322,13 @@
         <v>29994</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>374</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -5382,13 +5337,13 @@
         <v>51668</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="M7" s="7">
         <v>76</v>
@@ -5397,13 +5352,13 @@
         <v>81662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5373,13 @@
         <v>3000</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>374</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>384</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5433,13 +5388,13 @@
         <v>11039</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>385</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -5448,13 +5403,13 @@
         <v>14039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5424,13 @@
         <v>752380</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>890</v>
@@ -5484,13 +5439,13 @@
         <v>992220</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1650</v>
@@ -5499,18 +5454,18 @@
         <v>1744600</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5522,13 +5477,13 @@
         <v>1016812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>392</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>968</v>
@@ -5537,13 +5492,13 @@
         <v>1000023</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>395</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>1925</v>
@@ -5552,13 +5507,13 @@
         <v>2016835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5528,13 @@
         <v>682783</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>399</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="H11" s="7">
         <v>628</v>
@@ -5588,13 +5543,13 @@
         <v>654810</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="M11" s="7">
         <v>1275</v>
@@ -5603,13 +5558,13 @@
         <v>1337593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5579,13 @@
         <v>317566</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="H12" s="7">
         <v>273</v>
@@ -5639,13 +5594,13 @@
         <v>292660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="M12" s="7">
         <v>570</v>
@@ -5654,13 +5609,13 @@
         <v>610227</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5630,13 @@
         <v>34771</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>402</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>416</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5690,13 +5645,13 @@
         <v>24710</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>419</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -5705,13 +5660,13 @@
         <v>59481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>421</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5681,13 @@
         <v>15152</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -5741,13 +5696,13 @@
         <v>9429</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>423</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -5756,13 +5711,13 @@
         <v>24581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>424</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5732,13 @@
         <v>2067084</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1902</v>
@@ -5792,13 +5747,13 @@
         <v>1981632</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3847</v>
@@ -5807,18 +5762,18 @@
         <v>4048716</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5830,13 +5785,13 @@
         <v>308833</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>428</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>325</v>
@@ -5845,13 +5800,13 @@
         <v>335300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>610</v>
@@ -5860,13 +5815,13 @@
         <v>644133</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>433</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,13 +5836,13 @@
         <v>175719</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>144</v>
@@ -5896,13 +5851,13 @@
         <v>151748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -5911,13 +5866,13 @@
         <v>327467</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,13 +5887,13 @@
         <v>59555</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -5947,13 +5902,13 @@
         <v>49949</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="M18" s="7">
         <v>97</v>
@@ -5962,13 +5917,13 @@
         <v>109505</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>212</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,13 +5938,13 @@
         <v>921</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>435</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -5998,13 +5953,13 @@
         <v>7058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>454</v>
+        <v>376</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -6013,13 +5968,13 @@
         <v>7978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +5989,13 @@
         <v>993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>457</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6049,13 +6004,13 @@
         <v>1451</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6064,13 +6019,13 @@
         <v>2443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6040,13 @@
         <v>546021</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>523</v>
@@ -6100,13 +6055,13 @@
         <v>545506</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1023</v>
@@ -6115,13 +6070,13 @@
         <v>1091527</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,13 +6093,13 @@
         <v>1694862</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>19</v>
+        <v>443</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>1672</v>
@@ -6153,13 +6108,13 @@
         <v>1750949</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>3285</v>
@@ -6168,13 +6123,13 @@
         <v>3445810</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6144,13 @@
         <v>1073813</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="H23" s="7">
         <v>1071</v>
@@ -6204,13 +6159,13 @@
         <v>1141971</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="M23" s="7">
         <v>2098</v>
@@ -6219,13 +6174,13 @@
         <v>2215784</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6195,13 @@
         <v>511980</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="H24" s="7">
         <v>478</v>
@@ -6255,13 +6210,13 @@
         <v>521084</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="M24" s="7">
         <v>962</v>
@@ -6270,13 +6225,13 @@
         <v>1033064</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6246,13 @@
         <v>65685</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>487</v>
+        <v>437</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -6306,13 +6261,13 @@
         <v>83436</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>216</v>
+        <v>470</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="M25" s="7">
         <v>138</v>
@@ -6321,13 +6276,13 @@
         <v>149121</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>489</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,13 +6297,13 @@
         <v>19144</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>491</v>
+        <v>266</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>51</v>
+        <v>297</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -6357,13 +6312,13 @@
         <v>21919</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>494</v>
+        <v>224</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -6372,13 +6327,13 @@
         <v>41063</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6348,13 @@
         <v>3365484</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3315</v>
@@ -6408,13 +6363,13 @@
         <v>3519358</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6520</v>
@@ -6423,18 +6378,18 @@
         <v>6884842</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6453,7 +6408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DF4676-F29F-45D4-8E9F-77A1AB21E398}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9F2A00-1BC0-48F1-B6C3-4AAA004BAA3C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6470,7 +6425,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6577,13 +6532,13 @@
         <v>283029</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="H4" s="7">
         <v>697</v>
@@ -6592,13 +6547,13 @@
         <v>418073</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="M4" s="7">
         <v>1051</v>
@@ -6607,13 +6562,13 @@
         <v>701101</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6583,13 @@
         <v>129216</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>487</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="H5" s="7">
         <v>367</v>
@@ -6643,13 +6598,13 @@
         <v>211312</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="M5" s="7">
         <v>536</v>
@@ -6658,13 +6613,13 @@
         <v>340528</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6634,13 @@
         <v>80907</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="H6" s="7">
         <v>213</v>
@@ -6694,13 +6649,13 @@
         <v>118000</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>517</v>
+        <v>81</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="M6" s="7">
         <v>316</v>
@@ -6709,13 +6664,13 @@
         <v>198906</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6685,13 @@
         <v>32150</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>524</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="H7" s="7">
         <v>91</v>
@@ -6745,13 +6700,13 @@
         <v>54395</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="M7" s="7">
         <v>134</v>
@@ -6760,13 +6715,13 @@
         <v>86545</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6736,13 @@
         <v>11568</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>532</v>
+        <v>231</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>90</v>
+        <v>512</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -6796,13 +6751,13 @@
         <v>22999</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="M8" s="7">
         <v>56</v>
@@ -6811,13 +6766,13 @@
         <v>34567</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>516</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6787,13 @@
         <v>536869</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1408</v>
@@ -6847,13 +6802,13 @@
         <v>824778</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2093</v>
@@ -6862,18 +6817,18 @@
         <v>1361647</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6885,13 +6840,13 @@
         <v>1361096</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="H10" s="7">
         <v>1693</v>
@@ -6900,13 +6855,13 @@
         <v>1311842</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M10" s="7">
         <v>2871</v>
@@ -6915,13 +6870,13 @@
         <v>2672938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,13 +6891,13 @@
         <v>561667</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>526</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="H11" s="7">
         <v>865</v>
@@ -6951,13 +6906,13 @@
         <v>565525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="M11" s="7">
         <v>1443</v>
@@ -6966,13 +6921,13 @@
         <v>1127192</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,13 +6942,13 @@
         <v>169407</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="H12" s="7">
         <v>233</v>
@@ -7002,13 +6957,13 @@
         <v>281016</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="M12" s="7">
         <v>388</v>
@@ -7017,13 +6972,13 @@
         <v>450423</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +6993,13 @@
         <v>41534</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>562</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>544</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>455</v>
+        <v>545</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -7053,13 +7008,13 @@
         <v>56776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -7068,13 +7023,13 @@
         <v>98310</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,13 +7044,13 @@
         <v>24514</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>346</v>
+        <v>550</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -7104,13 +7059,13 @@
         <v>20679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
@@ -7119,13 +7074,13 @@
         <v>45193</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7095,13 @@
         <v>2158218</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>2907</v>
@@ -7155,13 +7110,13 @@
         <v>2235838</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>4894</v>
@@ -7170,18 +7125,18 @@
         <v>4394056</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7193,13 +7148,13 @@
         <v>456155</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="H16" s="7">
         <v>686</v>
@@ -7208,13 +7163,13 @@
         <v>504334</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="M16" s="7">
         <v>1138</v>
@@ -7223,13 +7178,13 @@
         <v>960489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>561</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7199,13 @@
         <v>159572</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
@@ -7259,13 +7214,13 @@
         <v>168971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="M17" s="7">
         <v>435</v>
@@ -7274,13 +7229,13 @@
         <v>328543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>570</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7250,13 @@
         <v>32769</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>586</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -7310,13 +7265,13 @@
         <v>26967</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>589</v>
+        <v>472</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
@@ -7325,13 +7280,13 @@
         <v>59736</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>137</v>
+        <v>575</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7301,13 @@
         <v>13318</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -7361,13 +7316,13 @@
         <v>6750</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -7376,13 +7331,13 @@
         <v>20068</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>596</v>
+        <v>379</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>226</v>
+        <v>581</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,10 +7355,10 @@
         <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -7412,13 +7367,13 @@
         <v>4708</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>345</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>87</v>
+        <v>586</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -7427,13 +7382,13 @@
         <v>11253</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>587</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>491</v>
+        <v>588</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7448,13 +7403,13 @@
         <v>668359</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>1001</v>
@@ -7463,13 +7418,13 @@
         <v>711730</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1677</v>
@@ -7478,13 +7433,13 @@
         <v>1380089</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7456,13 @@
         <v>2100279</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="H22" s="7">
         <v>3076</v>
@@ -7516,13 +7471,13 @@
         <v>2234249</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="M22" s="7">
         <v>5060</v>
@@ -7531,13 +7486,13 @@
         <v>4334528</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7507,13 @@
         <v>850455</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>609</v>
+        <v>74</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="H23" s="7">
         <v>1494</v>
@@ -7567,13 +7522,13 @@
         <v>945808</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="M23" s="7">
         <v>2414</v>
@@ -7582,13 +7537,13 @@
         <v>1796263</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,13 +7558,13 @@
         <v>283083</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="H24" s="7">
         <v>480</v>
@@ -7618,13 +7573,13 @@
         <v>425983</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>282</v>
+        <v>609</v>
       </c>
       <c r="M24" s="7">
         <v>773</v>
@@ -7633,13 +7588,13 @@
         <v>709066</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>253</v>
+        <v>611</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,13 +7609,13 @@
         <v>87002</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>615</v>
       </c>
       <c r="H25" s="7">
         <v>188</v>
@@ -7669,13 +7624,13 @@
         <v>117921</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>627</v>
+        <v>331</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="M25" s="7">
         <v>294</v>
@@ -7684,13 +7639,13 @@
         <v>204923</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,13 +7660,13 @@
         <v>42627</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>632</v>
+        <v>406</v>
       </c>
       <c r="H26" s="7">
         <v>78</v>
@@ -7720,13 +7675,13 @@
         <v>48385</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>633</v>
+        <v>89</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>635</v>
+        <v>56</v>
       </c>
       <c r="M26" s="7">
         <v>123</v>
@@ -7735,13 +7690,13 @@
         <v>91012</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>633</v>
+        <v>89</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>637</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7756,13 +7711,13 @@
         <v>3363446</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>5316</v>
@@ -7771,13 +7726,13 @@
         <v>3772346</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>8664</v>
@@ -7786,18 +7741,18 @@
         <v>7135792</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5708-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5708-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A706407-DD01-4E88-BE90-55C3BDB214D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB3CCF8-60AA-4EDC-930D-F5302E920F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1144D07C-C9A1-462C-812F-EB5D7154B96A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9CAC14EE-84D4-4CD9-AD09-944496C18E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="638">
   <si>
     <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>46,69%</t>
   </si>
   <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
   </si>
   <si>
     <t>45,83%</t>
   </si>
   <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,1807 +107,1852 @@
     <t>28,88%</t>
   </si>
   <si>
-    <t>26,12%</t>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2012 (Tasa respuesta: 99,63%)</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2016 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
   </si>
   <si>
     <t>31,69%</t>
   </si>
   <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2023 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
   </si>
   <si>
     <t>20,65%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2012 (Tasa respuesta: 99,63%)</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2016 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2023 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4FD2BB-58A4-4D2E-9143-E4DFCBE0C0CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49EE1D0-9C61-4EDD-8390-2BE52F8A3286}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2784,10 +2829,10 @@
         <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2847,13 @@
         <v>462867</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>399</v>
@@ -2817,13 +2862,13 @@
         <v>400885</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>863</v>
@@ -2832,13 +2877,13 @@
         <v>863752</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2898,13 @@
         <v>215817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>190</v>
@@ -2868,13 +2913,13 @@
         <v>201384</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>407</v>
@@ -2883,13 +2928,13 @@
         <v>417200</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,7 +2949,7 @@
         <v>31359</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>89</v>
@@ -2973,10 +3018,10 @@
         <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -2985,13 +3030,13 @@
         <v>6841</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,7 +3048,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3047,7 +3092,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3059,13 +3104,13 @@
         <v>331108</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>282</v>
@@ -3074,13 +3119,13 @@
         <v>296486</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>598</v>
@@ -3089,13 +3134,13 @@
         <v>627594</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3155,13 @@
         <v>149680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>107</v>
@@ -3125,13 +3170,13 @@
         <v>112323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>252</v>
@@ -3140,13 +3185,13 @@
         <v>262003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3206,13 @@
         <v>55755</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -3176,13 +3221,13 @@
         <v>49902</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -3191,13 +3236,13 @@
         <v>105657</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3257,13 @@
         <v>13315</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -3227,13 +3272,13 @@
         <v>16776</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3242,13 +3287,13 @@
         <v>30091</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3278,13 +3323,13 @@
         <v>926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3293,13 +3338,13 @@
         <v>926</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,16 +3409,16 @@
         <v>1741</v>
       </c>
       <c r="D22" s="7">
-        <v>1792439</v>
+        <v>1792440</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="H22" s="7">
         <v>1805</v>
@@ -3382,13 +3427,13 @@
         <v>1838997</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>3546</v>
@@ -3397,13 +3442,13 @@
         <v>3631436</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,16 +3460,16 @@
         <v>904</v>
       </c>
       <c r="D23" s="7">
-        <v>910523</v>
+        <v>910524</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>844</v>
@@ -3433,28 +3478,28 @@
         <v>857408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>1748</v>
       </c>
       <c r="N23" s="7">
-        <v>1767932</v>
+        <v>1767931</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3514,13 @@
         <v>458851</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>500</v>
@@ -3484,13 +3529,13 @@
         <v>524948</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>957</v>
@@ -3499,13 +3544,13 @@
         <v>983799</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3565,13 @@
         <v>100333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>130</v>
@@ -3535,28 +3580,28 @@
         <v>139002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>228</v>
       </c>
       <c r="N25" s="7">
-        <v>239336</v>
+        <v>239335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3616,13 @@
         <v>12847</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -3586,13 +3631,13 @@
         <v>17862</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -3601,13 +3646,13 @@
         <v>30709</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,7 +3664,7 @@
         <v>3213</v>
       </c>
       <c r="D27" s="7">
-        <v>3274993</v>
+        <v>3274994</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3649,7 +3694,7 @@
         <v>6509</v>
       </c>
       <c r="N27" s="7">
-        <v>6653211</v>
+        <v>6653210</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3663,7 +3708,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3682,7 +3727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A605ECA1-A854-4EDE-945C-BE9DC4F6317C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF6DA0E-2BBB-451A-A97B-926B4E78612D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3699,7 +3744,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3806,13 +3851,13 @@
         <v>533728</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>656</v>
@@ -3821,13 +3866,13 @@
         <v>703155</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>1158</v>
@@ -3836,13 +3881,13 @@
         <v>1236882</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3902,13 @@
         <v>263443</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -3872,13 +3917,13 @@
         <v>417828</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>629</v>
@@ -3887,13 +3932,13 @@
         <v>681271</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3953,13 @@
         <v>122098</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>146</v>
@@ -3923,13 +3968,13 @@
         <v>157778</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>260</v>
@@ -3938,13 +3983,13 @@
         <v>279876</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +4004,13 @@
         <v>32609</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3974,13 +4019,13 @@
         <v>37090</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -3989,13 +4034,13 @@
         <v>69698</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4055,13 @@
         <v>15707</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4025,13 +4070,13 @@
         <v>19826</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -4040,13 +4085,13 @@
         <v>35533</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4159,13 @@
         <v>1198932</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
         <v>932</v>
@@ -4129,13 +4174,13 @@
         <v>997660</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>2072</v>
@@ -4144,13 +4189,13 @@
         <v>2196592</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4210,13 @@
         <v>509925</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>504</v>
@@ -4180,13 +4225,13 @@
         <v>538047</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>983</v>
@@ -4195,13 +4240,13 @@
         <v>1047972</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4261,13 @@
         <v>195986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>86</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>153</v>
@@ -4231,13 +4276,13 @@
         <v>167014</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>335</v>
@@ -4246,13 +4291,13 @@
         <v>363000</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4312,13 @@
         <v>42630</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -4282,13 +4327,13 @@
         <v>38112</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -4297,13 +4342,13 @@
         <v>80742</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4363,13 @@
         <v>8308</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4333,13 +4378,13 @@
         <v>12930</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -4348,13 +4393,13 @@
         <v>21237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,7 +4455,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4422,13 +4467,13 @@
         <v>314753</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H16" s="7">
         <v>277</v>
@@ -4437,13 +4482,13 @@
         <v>303856</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>568</v>
@@ -4452,13 +4497,13 @@
         <v>618609</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4518,13 @@
         <v>112960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -4488,13 +4533,13 @@
         <v>115462</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>204</v>
@@ -4503,13 +4548,13 @@
         <v>228422</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4569,13 @@
         <v>42186</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -4539,13 +4584,13 @@
         <v>36367</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -4554,13 +4599,13 @@
         <v>78553</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4620,13 @@
         <v>6572</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4590,13 +4635,13 @@
         <v>1948</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4605,13 +4650,13 @@
         <v>8520</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,10 +4674,10 @@
         <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4644,10 +4689,10 @@
         <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4656,13 +4701,13 @@
         <v>1935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,28 +4775,28 @@
         <v>2047413</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
         <v>1865</v>
       </c>
       <c r="I22" s="7">
-        <v>2004671</v>
+        <v>2004670</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>3798</v>
@@ -4760,13 +4805,13 @@
         <v>4052084</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4826,13 @@
         <v>886328</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="H23" s="7">
         <v>993</v>
@@ -4796,13 +4841,13 @@
         <v>1071337</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
         <v>1816</v>
@@ -4811,13 +4856,13 @@
         <v>1957666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4877,13 @@
         <v>360269</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="H24" s="7">
         <v>331</v>
@@ -4847,13 +4892,13 @@
         <v>361159</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="M24" s="7">
         <v>660</v>
@@ -4862,13 +4907,13 @@
         <v>721428</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4928,13 @@
         <v>81810</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -4898,13 +4943,13 @@
         <v>77150</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -4913,13 +4958,13 @@
         <v>158960</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4979,13 @@
         <v>24952</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -4949,13 +4994,13 @@
         <v>33753</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="M26" s="7">
         <v>53</v>
@@ -4964,13 +5009,13 @@
         <v>58706</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,7 +5042,7 @@
         <v>3288</v>
       </c>
       <c r="I27" s="7">
-        <v>3548071</v>
+        <v>3548070</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -5026,7 +5071,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5045,7 +5090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C370AEDB-4840-49C3-86D7-24E45B703B15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB4A005-86E9-42EC-A022-D3364C16E7F7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5062,7 +5107,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5169,13 +5214,13 @@
         <v>369217</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="H4" s="7">
         <v>379</v>
@@ -5184,13 +5229,13 @@
         <v>415626</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="M4" s="7">
         <v>750</v>
@@ -5199,13 +5244,13 @@
         <v>784843</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5265,13 @@
         <v>215311</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="H5" s="7">
         <v>299</v>
@@ -5235,13 +5280,13 @@
         <v>335412</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="M5" s="7">
         <v>517</v>
@@ -5250,13 +5295,13 @@
         <v>550723</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5316,13 @@
         <v>134858</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>360</v>
+        <v>287</v>
       </c>
       <c r="H6" s="7">
         <v>159</v>
@@ -5286,13 +5331,13 @@
         <v>178474</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="M6" s="7">
         <v>295</v>
@@ -5301,13 +5346,13 @@
         <v>313333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5367,13 @@
         <v>29994</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>377</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -5337,13 +5382,13 @@
         <v>51668</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="M7" s="7">
         <v>76</v>
@@ -5352,13 +5397,13 @@
         <v>81662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5418,13 @@
         <v>3000</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5388,13 +5433,13 @@
         <v>11039</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>389</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -5403,13 +5448,13 @@
         <v>14039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5522,13 @@
         <v>1016812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>396</v>
       </c>
       <c r="H10" s="7">
         <v>968</v>
@@ -5492,13 +5537,13 @@
         <v>1000023</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>399</v>
       </c>
       <c r="M10" s="7">
         <v>1925</v>
@@ -5507,13 +5552,13 @@
         <v>2016835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>400</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5573,13 @@
         <v>682783</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>404</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="H11" s="7">
         <v>628</v>
@@ -5543,13 +5588,13 @@
         <v>654810</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="M11" s="7">
         <v>1275</v>
@@ -5558,13 +5603,13 @@
         <v>1337593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5624,13 @@
         <v>317566</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="H12" s="7">
         <v>273</v>
@@ -5594,13 +5639,13 @@
         <v>292660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="M12" s="7">
         <v>570</v>
@@ -5609,13 +5654,13 @@
         <v>610227</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5675,13 @@
         <v>34771</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5645,13 +5690,13 @@
         <v>24710</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>337</v>
+        <v>423</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>424</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -5660,13 +5705,13 @@
         <v>59481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5726,13 @@
         <v>15152</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -5696,13 +5741,13 @@
         <v>9429</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>429</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -5711,13 +5756,13 @@
         <v>24581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>335</v>
+        <v>430</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>431</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,7 +5818,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5785,13 +5830,13 @@
         <v>308833</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>434</v>
       </c>
       <c r="H16" s="7">
         <v>325</v>
@@ -5800,13 +5845,13 @@
         <v>335300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="M16" s="7">
         <v>610</v>
@@ -5815,13 +5860,13 @@
         <v>644133</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>439</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5881,13 @@
         <v>175719</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="H17" s="7">
         <v>144</v>
@@ -5851,13 +5896,13 @@
         <v>151748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -5866,13 +5911,13 @@
         <v>327467</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5932,13 @@
         <v>59555</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -5902,13 +5947,13 @@
         <v>49949</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="M18" s="7">
         <v>97</v>
@@ -5917,13 +5962,13 @@
         <v>109505</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,13 +5983,13 @@
         <v>921</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -5953,13 +5998,13 @@
         <v>7058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>436</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -5968,13 +6013,13 @@
         <v>7978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,13 +6034,13 @@
         <v>993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>438</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6004,13 +6049,13 @@
         <v>1451</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6022,10 +6067,10 @@
         <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6138,13 @@
         <v>1694862</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="H22" s="7">
         <v>1672</v>
@@ -6108,13 +6153,13 @@
         <v>1750949</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="M22" s="7">
         <v>3285</v>
@@ -6123,13 +6168,13 @@
         <v>3445810</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6189,13 @@
         <v>1073813</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>452</v>
+        <v>322</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="H23" s="7">
         <v>1071</v>
@@ -6159,13 +6204,13 @@
         <v>1141971</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="M23" s="7">
         <v>2098</v>
@@ -6174,13 +6219,13 @@
         <v>2215784</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6240,13 @@
         <v>511980</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="H24" s="7">
         <v>478</v>
@@ -6210,13 +6255,13 @@
         <v>521084</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="M24" s="7">
         <v>962</v>
@@ -6225,13 +6270,13 @@
         <v>1033064</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,13 +6291,13 @@
         <v>65685</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>469</v>
+        <v>232</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>437</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -6261,13 +6306,13 @@
         <v>83436</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>326</v>
+        <v>490</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="M25" s="7">
         <v>138</v>
@@ -6276,13 +6321,13 @@
         <v>149121</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>492</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6342,13 @@
         <v>19144</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>266</v>
+        <v>494</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
+        <v>495</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -6312,13 +6357,13 @@
         <v>21919</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>473</v>
+        <v>55</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>224</v>
+        <v>496</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -6327,13 +6372,13 @@
         <v>41063</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>264</v>
+        <v>427</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>476</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,7 +6434,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -6408,7 +6453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9F2A00-1BC0-48F1-B6C3-4AAA004BAA3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA70A0C6-364A-4C93-A9A1-95B820219353}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6425,7 +6470,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6532,13 +6577,13 @@
         <v>283029</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="H4" s="7">
         <v>697</v>
@@ -6547,13 +6592,13 @@
         <v>418073</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="M4" s="7">
         <v>1051</v>
@@ -6562,13 +6607,13 @@
         <v>701101</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6628,13 @@
         <v>129216</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="H5" s="7">
         <v>367</v>
@@ -6598,13 +6643,13 @@
         <v>211312</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M5" s="7">
         <v>536</v>
@@ -6613,13 +6658,13 @@
         <v>340528</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6679,13 @@
         <v>80907</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="H6" s="7">
         <v>213</v>
@@ -6649,13 +6694,13 @@
         <v>118000</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>81</v>
+        <v>519</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="M6" s="7">
         <v>316</v>
@@ -6664,13 +6709,13 @@
         <v>198906</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6730,13 @@
         <v>32150</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>526</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="H7" s="7">
         <v>91</v>
@@ -6700,13 +6745,13 @@
         <v>54395</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="M7" s="7">
         <v>134</v>
@@ -6715,13 +6760,13 @@
         <v>86545</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6781,13 @@
         <v>11568</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>231</v>
+        <v>534</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -6751,13 +6796,13 @@
         <v>22999</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>537</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>514</v>
+        <v>384</v>
       </c>
       <c r="M8" s="7">
         <v>56</v>
@@ -6766,13 +6811,13 @@
         <v>34567</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>516</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,13 +6885,13 @@
         <v>1361096</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="H10" s="7">
         <v>1693</v>
@@ -6855,13 +6900,13 @@
         <v>1311842</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>109</v>
+        <v>546</v>
       </c>
       <c r="M10" s="7">
         <v>2871</v>
@@ -6870,13 +6915,13 @@
         <v>2672938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>523</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>524</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6936,13 @@
         <v>561667</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>526</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="H11" s="7">
         <v>865</v>
@@ -6906,13 +6951,13 @@
         <v>565525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>531</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>1443</v>
@@ -6921,13 +6966,13 @@
         <v>1127192</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,13 +6987,13 @@
         <v>169407</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="H12" s="7">
         <v>233</v>
@@ -6957,13 +7002,13 @@
         <v>281016</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="M12" s="7">
         <v>388</v>
@@ -6972,13 +7017,13 @@
         <v>450423</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,13 +7038,13 @@
         <v>41534</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>564</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>544</v>
+        <v>347</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -7008,13 +7053,13 @@
         <v>56776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>546</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -7023,13 +7068,13 @@
         <v>98310</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,13 +7089,13 @@
         <v>24514</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -7059,13 +7104,13 @@
         <v>20679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>497</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
@@ -7074,13 +7119,13 @@
         <v>45193</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>553</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>544</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,7 +7181,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7145,31 +7190,31 @@
         <v>452</v>
       </c>
       <c r="D16" s="7">
-        <v>456155</v>
+        <v>456154</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="H16" s="7">
         <v>686</v>
       </c>
       <c r="I16" s="7">
-        <v>504334</v>
+        <v>504335</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="M16" s="7">
         <v>1138</v>
@@ -7178,13 +7223,13 @@
         <v>960489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7199,13 +7244,13 @@
         <v>159572</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
@@ -7214,13 +7259,13 @@
         <v>168971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="M17" s="7">
         <v>435</v>
@@ -7229,13 +7274,13 @@
         <v>328543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>569</v>
+        <v>445</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,13 +7295,13 @@
         <v>32769</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>589</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -7265,13 +7310,13 @@
         <v>26967</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>573</v>
+        <v>381</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>472</v>
+        <v>591</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
@@ -7280,13 +7325,13 @@
         <v>59736</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,13 +7346,13 @@
         <v>13318</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>578</v>
+        <v>138</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>595</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>579</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -7316,13 +7361,13 @@
         <v>6750</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>332</v>
+        <v>148</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -7331,13 +7376,13 @@
         <v>20068</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>379</v>
+        <v>597</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>581</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,10 +7400,10 @@
         <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -7370,10 +7415,10 @@
         <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -7382,13 +7427,13 @@
         <v>11253</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>587</v>
+        <v>188</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,7 +7445,7 @@
         <v>676</v>
       </c>
       <c r="D21" s="7">
-        <v>668359</v>
+        <v>668358</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7415,7 +7460,7 @@
         <v>1001</v>
       </c>
       <c r="I21" s="7">
-        <v>711730</v>
+        <v>711731</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7456,13 +7501,13 @@
         <v>2100279</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="H22" s="7">
         <v>3076</v>
@@ -7474,10 +7519,10 @@
         <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="M22" s="7">
         <v>5060</v>
@@ -7486,13 +7531,13 @@
         <v>4334528</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7552,13 @@
         <v>850455</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>74</v>
+        <v>613</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="H23" s="7">
         <v>1494</v>
@@ -7522,13 +7567,13 @@
         <v>945808</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="M23" s="7">
         <v>2414</v>
@@ -7537,13 +7582,13 @@
         <v>1796263</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +7603,13 @@
         <v>283083</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>606</v>
+        <v>255</v>
       </c>
       <c r="H24" s="7">
         <v>480</v>
@@ -7573,13 +7618,13 @@
         <v>425983</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="M24" s="7">
         <v>773</v>
@@ -7588,13 +7633,13 @@
         <v>709066</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,13 +7654,13 @@
         <v>87002</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>613</v>
+        <v>460</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="H25" s="7">
         <v>188</v>
@@ -7624,13 +7669,13 @@
         <v>117921</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>331</v>
+        <v>591</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="M25" s="7">
         <v>294</v>
@@ -7639,13 +7684,13 @@
         <v>204923</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>618</v>
+        <v>378</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>620</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,13 +7705,13 @@
         <v>42627</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>511</v>
+        <v>634</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>224</v>
+        <v>305</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>406</v>
+        <v>92</v>
       </c>
       <c r="H26" s="7">
         <v>78</v>
@@ -7675,13 +7720,13 @@
         <v>48385</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>89</v>
+        <v>635</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
       <c r="M26" s="7">
         <v>123</v>
@@ -7690,13 +7735,13 @@
         <v>91012</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>89</v>
+        <v>635</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>622</v>
+        <v>571</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>258</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,7 +7797,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5708-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5708-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB3CCF8-60AA-4EDC-930D-F5302E920F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7D5A10C-2058-4B6F-95BE-EDAF88184004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9CAC14EE-84D4-4CD9-AD09-944496C18E6B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AC197305-7F6B-4BA7-B2C4-082AA019593A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="640">
   <si>
     <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -1538,421 +1538,427 @@
     <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas económicos en 2023 (Tasa respuesta: 99,33%)</t>
   </si>
   <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49EE1D0-9C61-4EDD-8390-2BE52F8A3286}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAA2E69-FE5F-444C-BC41-255A832A51BF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2515,7 +2521,7 @@
         <v>1089</v>
       </c>
       <c r="N4" s="7">
-        <v>1084411</v>
+        <v>1084410</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2668,7 +2674,7 @@
         <v>134</v>
       </c>
       <c r="N7" s="7">
-        <v>136365</v>
+        <v>136364</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2770,7 +2776,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -3048,7 +3054,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3409,7 +3415,7 @@
         <v>1741</v>
       </c>
       <c r="D22" s="7">
-        <v>1792440</v>
+        <v>1792439</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>149</v>
@@ -3460,7 +3466,7 @@
         <v>904</v>
       </c>
       <c r="D23" s="7">
-        <v>910524</v>
+        <v>910523</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>157</v>
@@ -3490,7 +3496,7 @@
         <v>1748</v>
       </c>
       <c r="N23" s="7">
-        <v>1767931</v>
+        <v>1767932</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>163</v>
@@ -3592,7 +3598,7 @@
         <v>228</v>
       </c>
       <c r="N25" s="7">
-        <v>239335</v>
+        <v>239336</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>181</v>
@@ -3664,7 +3670,7 @@
         <v>3213</v>
       </c>
       <c r="D27" s="7">
-        <v>3274994</v>
+        <v>3274993</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3694,7 +3700,7 @@
         <v>6509</v>
       </c>
       <c r="N27" s="7">
-        <v>6653210</v>
+        <v>6653211</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3727,7 +3733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF6DA0E-2BBB-451A-A97B-926B4E78612D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2550B602-4240-41EF-AF6C-29D332884844}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4787,7 +4793,7 @@
         <v>1865</v>
       </c>
       <c r="I22" s="7">
-        <v>2004670</v>
+        <v>2004671</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>313</v>
@@ -4823,7 +4829,7 @@
         <v>823</v>
       </c>
       <c r="D23" s="7">
-        <v>886328</v>
+        <v>886329</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>319</v>
@@ -5027,7 +5033,7 @@
         <v>3184</v>
       </c>
       <c r="D27" s="7">
-        <v>3400772</v>
+        <v>3400773</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -5042,7 +5048,7 @@
         <v>3288</v>
       </c>
       <c r="I27" s="7">
-        <v>3548070</v>
+        <v>3548071</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -5090,7 +5096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB4A005-86E9-42EC-A022-D3364C16E7F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C794E0F-5F62-4017-A00E-E46A4B9C1422}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6390,7 +6396,7 @@
         <v>3205</v>
       </c>
       <c r="D27" s="7">
-        <v>3365484</v>
+        <v>3365485</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6453,7 +6459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA70A0C6-364A-4C93-A9A1-95B820219353}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6582D2FF-133E-432C-B488-B8B7A9B6F93F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6574,7 +6580,7 @@
         <v>354</v>
       </c>
       <c r="D4" s="7">
-        <v>283029</v>
+        <v>271577</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>499</v>
@@ -6589,7 +6595,7 @@
         <v>697</v>
       </c>
       <c r="I4" s="7">
-        <v>418073</v>
+        <v>382130</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>502</v>
@@ -6604,16 +6610,16 @@
         <v>1051</v>
       </c>
       <c r="N4" s="7">
-        <v>701101</v>
+        <v>653707</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>505</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,46 +6631,46 @@
         <v>169</v>
       </c>
       <c r="D5" s="7">
-        <v>129216</v>
+        <v>125320</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="H5" s="7">
         <v>367</v>
       </c>
       <c r="I5" s="7">
-        <v>211312</v>
+        <v>190191</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="M5" s="7">
         <v>536</v>
       </c>
       <c r="N5" s="7">
-        <v>340528</v>
+        <v>315510</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>514</v>
+        <v>72</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,46 +6682,46 @@
         <v>103</v>
       </c>
       <c r="D6" s="7">
-        <v>80907</v>
+        <v>74363</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>417</v>
+        <v>514</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H6" s="7">
         <v>213</v>
       </c>
       <c r="I6" s="7">
-        <v>118000</v>
+        <v>104989</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M6" s="7">
         <v>316</v>
       </c>
       <c r="N6" s="7">
-        <v>198906</v>
+        <v>179352</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,46 +6733,46 @@
         <v>43</v>
       </c>
       <c r="D7" s="7">
-        <v>32150</v>
+        <v>28800</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="H7" s="7">
         <v>91</v>
       </c>
       <c r="I7" s="7">
-        <v>54395</v>
+        <v>47639</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="M7" s="7">
         <v>134</v>
       </c>
       <c r="N7" s="7">
-        <v>86545</v>
+        <v>76439</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,46 +6784,46 @@
         <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>11568</v>
+        <v>10370</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
       </c>
       <c r="I8" s="7">
-        <v>22999</v>
+        <v>20384</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M8" s="7">
         <v>56</v>
       </c>
       <c r="N8" s="7">
-        <v>34567</v>
+        <v>30755</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,7 +6835,7 @@
         <v>685</v>
       </c>
       <c r="D9" s="7">
-        <v>536869</v>
+        <v>510430</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6844,7 +6850,7 @@
         <v>1408</v>
       </c>
       <c r="I9" s="7">
-        <v>824778</v>
+        <v>745333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6859,7 +6865,7 @@
         <v>2093</v>
       </c>
       <c r="N9" s="7">
-        <v>1361647</v>
+        <v>1255763</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6882,46 +6888,46 @@
         <v>1178</v>
       </c>
       <c r="D10" s="7">
-        <v>1361096</v>
+        <v>1526278</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H10" s="7">
         <v>1693</v>
       </c>
       <c r="I10" s="7">
-        <v>1311842</v>
+        <v>1280609</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="M10" s="7">
         <v>2871</v>
       </c>
       <c r="N10" s="7">
-        <v>2672938</v>
+        <v>2806887</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>546</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>547</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,46 +6939,46 @@
         <v>578</v>
       </c>
       <c r="D11" s="7">
-        <v>561667</v>
+        <v>543707</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>549</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H11" s="7">
         <v>865</v>
       </c>
       <c r="I11" s="7">
-        <v>565525</v>
+        <v>515882</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>554</v>
       </c>
       <c r="M11" s="7">
         <v>1443</v>
       </c>
       <c r="N11" s="7">
-        <v>1127192</v>
+        <v>1059589</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,46 +6990,46 @@
         <v>155</v>
       </c>
       <c r="D12" s="7">
-        <v>169407</v>
+        <v>158031</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H12" s="7">
         <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>281016</v>
+        <v>359909</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M12" s="7">
         <v>388</v>
       </c>
       <c r="N12" s="7">
-        <v>450423</v>
+        <v>517940</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,46 +7041,46 @@
         <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>41534</v>
+        <v>37206</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>568</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
       </c>
       <c r="I13" s="7">
-        <v>56776</v>
+        <v>50115</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>539</v>
+        <v>570</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>488</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>571</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
       </c>
       <c r="N13" s="7">
-        <v>98310</v>
+        <v>87320</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>567</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>568</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,46 +7092,46 @@
         <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>24514</v>
+        <v>21445</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>569</v>
+        <v>496</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>570</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>20679</v>
+        <v>18610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>497</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
       </c>
       <c r="N14" s="7">
-        <v>45193</v>
+        <v>40055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>571</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,7 +7143,7 @@
         <v>1987</v>
       </c>
       <c r="D15" s="7">
-        <v>2158218</v>
+        <v>2286666</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7152,7 +7158,7 @@
         <v>2907</v>
       </c>
       <c r="I15" s="7">
-        <v>2235838</v>
+        <v>2225125</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7167,7 +7173,7 @@
         <v>4894</v>
       </c>
       <c r="N15" s="7">
-        <v>4394056</v>
+        <v>4511792</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7190,46 +7196,46 @@
         <v>452</v>
       </c>
       <c r="D16" s="7">
-        <v>456154</v>
+        <v>435097</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H16" s="7">
         <v>686</v>
       </c>
       <c r="I16" s="7">
-        <v>504335</v>
+        <v>467701</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M16" s="7">
         <v>1138</v>
       </c>
       <c r="N16" s="7">
-        <v>960489</v>
+        <v>902798</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,46 +7247,46 @@
         <v>173</v>
       </c>
       <c r="D17" s="7">
-        <v>159572</v>
+        <v>152479</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
       </c>
       <c r="I17" s="7">
-        <v>168971</v>
+        <v>155958</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="M17" s="7">
         <v>435</v>
       </c>
       <c r="N17" s="7">
-        <v>328543</v>
+        <v>308436</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>445</v>
+        <v>588</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>587</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,46 +7298,46 @@
         <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>32769</v>
+        <v>30936</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>589</v>
+        <v>534</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>26967</v>
+        <v>24572</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>381</v>
+        <v>592</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
       </c>
       <c r="N18" s="7">
-        <v>59736</v>
+        <v>55508</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>594</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,46 +7349,46 @@
         <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>13318</v>
+        <v>13017</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>138</v>
+        <v>532</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>595</v>
+        <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>381</v>
+        <v>597</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>6750</v>
+        <v>6011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>148</v>
+        <v>598</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
       </c>
       <c r="N19" s="7">
-        <v>20068</v>
+        <v>19027</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>597</v>
+        <v>59</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>600</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,46 +7400,46 @@
         <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>6545</v>
+        <v>10591</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>57</v>
+        <v>601</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>599</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>4708</v>
+        <v>4305</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>349</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
       </c>
       <c r="N20" s="7">
-        <v>11253</v>
+        <v>14896</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>188</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>603</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,7 +7451,7 @@
         <v>676</v>
       </c>
       <c r="D21" s="7">
-        <v>668358</v>
+        <v>642120</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7460,7 +7466,7 @@
         <v>1001</v>
       </c>
       <c r="I21" s="7">
-        <v>711731</v>
+        <v>658547</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7475,7 +7481,7 @@
         <v>1677</v>
       </c>
       <c r="N21" s="7">
-        <v>1380089</v>
+        <v>1300666</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7498,46 +7504,46 @@
         <v>1984</v>
       </c>
       <c r="D22" s="7">
-        <v>2100279</v>
+        <v>2232952</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H22" s="7">
         <v>3076</v>
       </c>
       <c r="I22" s="7">
-        <v>2234249</v>
+        <v>2130440</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>609</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="M22" s="7">
         <v>5060</v>
       </c>
       <c r="N22" s="7">
-        <v>4334528</v>
+        <v>4363392</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,46 +7555,46 @@
         <v>920</v>
       </c>
       <c r="D23" s="7">
-        <v>850455</v>
+        <v>821505</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="H23" s="7">
         <v>1494</v>
       </c>
       <c r="I23" s="7">
-        <v>945808</v>
+        <v>862031</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="M23" s="7">
         <v>2414</v>
       </c>
       <c r="N23" s="7">
-        <v>1796263</v>
+        <v>1683536</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,46 +7606,46 @@
         <v>293</v>
       </c>
       <c r="D24" s="7">
-        <v>283083</v>
+        <v>263330</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>255</v>
+        <v>625</v>
       </c>
       <c r="H24" s="7">
         <v>480</v>
       </c>
       <c r="I24" s="7">
-        <v>425983</v>
+        <v>489471</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="M24" s="7">
         <v>773</v>
       </c>
       <c r="N24" s="7">
-        <v>709066</v>
+        <v>752801</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>627</v>
+        <v>525</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,46 +7657,46 @@
         <v>106</v>
       </c>
       <c r="D25" s="7">
-        <v>87002</v>
+        <v>79022</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>460</v>
+        <v>631</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H25" s="7">
         <v>188</v>
       </c>
       <c r="I25" s="7">
-        <v>117921</v>
+        <v>103764</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>591</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="M25" s="7">
         <v>294</v>
       </c>
       <c r="N25" s="7">
-        <v>204923</v>
+        <v>182786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>633</v>
+        <v>569</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>540</v>
+        <v>635</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7702,46 +7708,46 @@
         <v>45</v>
       </c>
       <c r="D26" s="7">
-        <v>42627</v>
+        <v>42406</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>92</v>
+        <v>637</v>
       </c>
       <c r="H26" s="7">
         <v>78</v>
       </c>
       <c r="I26" s="7">
-        <v>48385</v>
+        <v>43299</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>636</v>
+        <v>51</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>420</v>
+        <v>639</v>
       </c>
       <c r="M26" s="7">
         <v>123</v>
       </c>
       <c r="N26" s="7">
-        <v>91012</v>
+        <v>85705</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>635</v>
+        <v>428</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>571</v>
+        <v>496</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>637</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7753,7 +7759,7 @@
         <v>3348</v>
       </c>
       <c r="D27" s="7">
-        <v>3363446</v>
+        <v>3439216</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7768,7 +7774,7 @@
         <v>5316</v>
       </c>
       <c r="I27" s="7">
-        <v>3772346</v>
+        <v>3629005</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7783,7 +7789,7 @@
         <v>8664</v>
       </c>
       <c r="N27" s="7">
-        <v>7135792</v>
+        <v>7068221</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
